--- a/Resources/2010/Advanced_Percentile_2010.xlsx
+++ b/Resources/2010/Advanced_Percentile_2010.xlsx
@@ -1417,7 +1417,7 @@
     <t>Brandon Roy</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Pau Gasol</t>
@@ -1534,7 +1534,7 @@
     <t>Jason Richardson</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Nazr Mohammed</t>
@@ -1558,7 +1558,7 @@
     <t>Kelenna Azubuike</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Nicolas Batum</t>
@@ -1600,7 +1600,7 @@
     <t>Channing Frye</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>George Hill</t>
@@ -1777,7 +1777,7 @@
     <t>Mike Miller</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Erick Dampier</t>
@@ -2215,7 +2215,7 @@
     <t>Josh Howard</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Chris Hunter</t>
@@ -2371,7 +2371,7 @@
     <t>Didier Ilunga-Mbenga</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Ronnie Price</t>
